--- a/tests/test_xls/sheet_txns_pivot/test_foreach/test_foreach_yyyy/expected_result.xlsx
+++ b/tests/test_xls/sheet_txns_pivot/test_foreach/test_foreach_yyyy/expected_result.xlsx
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B2" s="5" t="n">
-        <v>-48651.68</v>
+        <v>-38915.87</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>-48651.68</v>
+        <v>-38915.87</v>
       </c>
     </row>
     <row r="3">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B3" s="5" t="n">
-        <v>77451.77</v>
+        <v>57327.05</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>77451.77</v>
+        <v>57327.05</v>
       </c>
     </row>
     <row r="4">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B4" s="5" t="n">
-        <v>-31176.89</v>
+        <v>-36353.05</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-31176.89</v>
+        <v>-36353.05</v>
       </c>
     </row>
     <row r="5">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B5" s="5" t="n">
-        <v>405743.87</v>
+        <v>452802.19</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>405743.87</v>
+        <v>452802.19</v>
       </c>
     </row>
     <row r="6">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>-16779.25</v>
+        <v>-11866.61</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-16779.25</v>
+        <v>-11866.61</v>
       </c>
     </row>
     <row r="7">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>-39370.67</v>
+        <v>-42160.42</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>-39370.67</v>
+        <v>-42160.42</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B8" s="5" t="n">
-        <v>-14249.09</v>
+        <v>-11891.18</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-14249.09</v>
+        <v>-11891.18</v>
       </c>
     </row>
     <row r="9">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B9" s="5" t="n">
-        <v>-50017.94</v>
+        <v>-57936.9</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-50017.94</v>
+        <v>-57936.9</v>
       </c>
     </row>
     <row r="10">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B10" s="5" t="n">
-        <v>-24552.83</v>
+        <v>-28564.63</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-24552.83</v>
+        <v>-28564.63</v>
       </c>
     </row>
     <row r="11">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B11" s="5" t="n">
-        <v>198609.51</v>
+        <v>196582.08</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>198609.51</v>
+        <v>196582.08</v>
       </c>
     </row>
     <row r="12">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B12" s="5" t="n">
-        <v>-198609.51</v>
+        <v>-196582.08</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-198609.51</v>
+        <v>-196582.08</v>
       </c>
     </row>
     <row r="13">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B13" s="5" t="n">
-        <v>-16849.53</v>
+        <v>-18135.67</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>-16849.53</v>
+        <v>-18135.67</v>
       </c>
     </row>
     <row r="14">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="B14" s="5" t="n">
-        <v>78455.41</v>
+        <v>81716.10000000001</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>78455.41</v>
+        <v>81716.10000000001</v>
       </c>
     </row>
     <row r="15">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B15" s="6" t="n">
-        <v>320003.17</v>
+        <v>346021.01</v>
       </c>
       <c r="C15" s="6" t="n">
-        <v>320003.17</v>
+        <v>346021.01</v>
       </c>
     </row>
   </sheetData>
@@ -707,10 +707,10 @@
         </is>
       </c>
       <c r="B2" s="5" t="n">
-        <v>-31943.12</v>
+        <v>-42885.77</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>-31943.12</v>
+        <v>-42885.77</v>
       </c>
     </row>
     <row r="3">
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="B3" s="5" t="n">
-        <v>79260.99000000001</v>
+        <v>69089.91</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>79260.99000000001</v>
+        <v>69089.91</v>
       </c>
     </row>
     <row r="4">
@@ -733,10 +733,10 @@
         </is>
       </c>
       <c r="B4" s="5" t="n">
-        <v>-37064.57</v>
+        <v>-30457.38</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-37064.57</v>
+        <v>-30457.38</v>
       </c>
     </row>
     <row r="5">
@@ -746,10 +746,10 @@
         </is>
       </c>
       <c r="B5" s="5" t="n">
-        <v>471555.5</v>
+        <v>439948.04</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>471555.5</v>
+        <v>439948.04</v>
       </c>
     </row>
     <row r="6">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>-23981.26</v>
+        <v>-20344.57</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-23981.26</v>
+        <v>-20344.57</v>
       </c>
     </row>
     <row r="7">
@@ -772,10 +772,10 @@
         </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>-40730.86</v>
+        <v>-40308.66</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>-40730.86</v>
+        <v>-40308.66</v>
       </c>
     </row>
     <row r="8">
@@ -785,10 +785,10 @@
         </is>
       </c>
       <c r="B8" s="5" t="n">
-        <v>-19678.52</v>
+        <v>-20277.56</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-19678.52</v>
+        <v>-20277.56</v>
       </c>
     </row>
     <row r="9">
@@ -798,10 +798,10 @@
         </is>
       </c>
       <c r="B9" s="5" t="n">
-        <v>-44660.62</v>
+        <v>-44474.84</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-44660.62</v>
+        <v>-44474.84</v>
       </c>
     </row>
     <row r="10">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="B10" s="5" t="n">
-        <v>-24956.51</v>
+        <v>-29994.23</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-24956.51</v>
+        <v>-29994.23</v>
       </c>
     </row>
     <row r="11">
@@ -824,10 +824,10 @@
         </is>
       </c>
       <c r="B11" s="5" t="n">
-        <v>192315.97</v>
+        <v>188143.44</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>192315.97</v>
+        <v>188143.44</v>
       </c>
     </row>
     <row r="12">
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="B12" s="5" t="n">
-        <v>-192315.97</v>
+        <v>-188143.44</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-192315.97</v>
+        <v>-188143.44</v>
       </c>
     </row>
     <row r="13">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="B13" s="5" t="n">
-        <v>-12233.2</v>
+        <v>-16482.58</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>-12233.2</v>
+        <v>-16482.58</v>
       </c>
     </row>
     <row r="14">
@@ -863,10 +863,10 @@
         </is>
       </c>
       <c r="B14" s="5" t="n">
-        <v>88341.75999999999</v>
+        <v>76255.21000000001</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>88341.75999999999</v>
+        <v>76255.21000000001</v>
       </c>
     </row>
     <row r="15">
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="B15" s="6" t="n">
-        <v>403909.59</v>
+        <v>340067.57</v>
       </c>
       <c r="C15" s="6" t="n">
-        <v>403909.59</v>
+        <v>340067.57</v>
       </c>
     </row>
   </sheetData>
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B2" s="5" t="n">
-        <v>-42411.08</v>
+        <v>-38293.06</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>-42411.08</v>
+        <v>-38293.06</v>
       </c>
     </row>
     <row r="3">
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="B3" s="5" t="n">
-        <v>61175.43</v>
+        <v>46505.97</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>61175.43</v>
+        <v>46505.97</v>
       </c>
     </row>
     <row r="4">
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="B4" s="5" t="n">
-        <v>-33914.8</v>
+        <v>-38819.41</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-33914.8</v>
+        <v>-38819.41</v>
       </c>
     </row>
     <row r="5">
@@ -970,10 +970,10 @@
         </is>
       </c>
       <c r="B5" s="5" t="n">
-        <v>487534.98</v>
+        <v>521104.54</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>487534.98</v>
+        <v>521104.54</v>
       </c>
     </row>
     <row r="6">
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>-15415.18</v>
+        <v>-15438.74</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-15415.18</v>
+        <v>-15438.74</v>
       </c>
     </row>
     <row r="7">
@@ -996,10 +996,10 @@
         </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>-33280.63</v>
+        <v>-31167.05</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>-33280.63</v>
+        <v>-31167.05</v>
       </c>
     </row>
     <row r="8">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="B8" s="5" t="n">
-        <v>-11332.62</v>
+        <v>-16132.08</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-11332.62</v>
+        <v>-16132.08</v>
       </c>
     </row>
     <row r="9">
@@ -1022,10 +1022,10 @@
         </is>
       </c>
       <c r="B9" s="5" t="n">
-        <v>-50171.63</v>
+        <v>-54028.1</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-50171.63</v>
+        <v>-54028.1</v>
       </c>
     </row>
     <row r="10">
@@ -1035,10 +1035,10 @@
         </is>
       </c>
       <c r="B10" s="5" t="n">
-        <v>-30160.03</v>
+        <v>-27644.43</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-30160.03</v>
+        <v>-27644.43</v>
       </c>
     </row>
     <row r="11">
@@ -1048,10 +1048,10 @@
         </is>
       </c>
       <c r="B11" s="5" t="n">
-        <v>185663.38</v>
+        <v>185434.74</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>185663.38</v>
+        <v>185434.74</v>
       </c>
     </row>
     <row r="12">
@@ -1061,10 +1061,10 @@
         </is>
       </c>
       <c r="B12" s="5" t="n">
-        <v>-185663.38</v>
+        <v>-185434.74</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-185663.38</v>
+        <v>-185434.74</v>
       </c>
     </row>
     <row r="13">
@@ -1074,10 +1074,10 @@
         </is>
       </c>
       <c r="B13" s="5" t="n">
-        <v>-20430.51</v>
+        <v>-15629.56</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>-20430.51</v>
+        <v>-15629.56</v>
       </c>
     </row>
     <row r="14">
@@ -1087,10 +1087,10 @@
         </is>
       </c>
       <c r="B14" s="5" t="n">
-        <v>87689.64</v>
+        <v>76187.89999999999</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>87689.64</v>
+        <v>76187.89999999999</v>
       </c>
     </row>
     <row r="15">
@@ -1100,10 +1100,10 @@
         </is>
       </c>
       <c r="B15" s="6" t="n">
-        <v>399283.57</v>
+        <v>406645.98</v>
       </c>
       <c r="C15" s="6" t="n">
-        <v>399283.57</v>
+        <v>406645.98</v>
       </c>
     </row>
   </sheetData>
@@ -1155,10 +1155,10 @@
         </is>
       </c>
       <c r="B2" s="5" t="n">
-        <v>-42634.72</v>
+        <v>-31954.07</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>-42634.72</v>
+        <v>-31954.07</v>
       </c>
     </row>
     <row r="3">
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="B3" s="5" t="n">
-        <v>97452.99000000001</v>
+        <v>68042.99000000001</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>97452.99000000001</v>
+        <v>68042.99000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1181,10 +1181,10 @@
         </is>
       </c>
       <c r="B4" s="5" t="n">
-        <v>-32619.3</v>
+        <v>-38946.09</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-32619.3</v>
+        <v>-38946.09</v>
       </c>
     </row>
     <row r="5">
@@ -1194,10 +1194,10 @@
         </is>
       </c>
       <c r="B5" s="5" t="n">
-        <v>493650.42</v>
+        <v>400785.61</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>493650.42</v>
+        <v>400785.61</v>
       </c>
     </row>
     <row r="6">
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>-13403.03</v>
+        <v>-15008.15</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-13403.03</v>
+        <v>-15008.15</v>
       </c>
     </row>
     <row r="7">
@@ -1220,10 +1220,10 @@
         </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>-35929.17</v>
+        <v>-37792.51</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>-35929.17</v>
+        <v>-37792.51</v>
       </c>
     </row>
     <row r="8">
@@ -1233,10 +1233,10 @@
         </is>
       </c>
       <c r="B8" s="5" t="n">
-        <v>-17478.59</v>
+        <v>-18620.19</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-17478.59</v>
+        <v>-18620.19</v>
       </c>
     </row>
     <row r="9">
@@ -1246,10 +1246,10 @@
         </is>
       </c>
       <c r="B9" s="5" t="n">
-        <v>-51207.49</v>
+        <v>-73444.08</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-51207.49</v>
+        <v>-73444.08</v>
       </c>
     </row>
     <row r="10">
@@ -1259,10 +1259,10 @@
         </is>
       </c>
       <c r="B10" s="5" t="n">
-        <v>-22044.21</v>
+        <v>-29930.08</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-22044.21</v>
+        <v>-29930.08</v>
       </c>
     </row>
     <row r="11">
@@ -1272,10 +1272,10 @@
         </is>
       </c>
       <c r="B11" s="5" t="n">
-        <v>196015.76</v>
+        <v>205682.74</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>196015.76</v>
+        <v>205682.74</v>
       </c>
     </row>
     <row r="12">
@@ -1285,10 +1285,10 @@
         </is>
       </c>
       <c r="B12" s="5" t="n">
-        <v>-196015.76</v>
+        <v>-205682.74</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-196015.76</v>
+        <v>-205682.74</v>
       </c>
     </row>
     <row r="13">
@@ -1298,10 +1298,10 @@
         </is>
       </c>
       <c r="B13" s="5" t="n">
-        <v>-17959.24</v>
+        <v>-19907.67</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>-17959.24</v>
+        <v>-19907.67</v>
       </c>
     </row>
     <row r="14">
@@ -1311,10 +1311,10 @@
         </is>
       </c>
       <c r="B14" s="5" t="n">
-        <v>130019.21</v>
+        <v>68580.99000000001</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>130019.21</v>
+        <v>68580.99000000001</v>
       </c>
     </row>
     <row r="15">
@@ -1324,10 +1324,10 @@
         </is>
       </c>
       <c r="B15" s="6" t="n">
-        <v>487846.87</v>
+        <v>271806.75</v>
       </c>
       <c r="C15" s="6" t="n">
-        <v>487846.87</v>
+        <v>271806.75</v>
       </c>
     </row>
   </sheetData>
@@ -1379,10 +1379,10 @@
         </is>
       </c>
       <c r="B2" s="5" t="n">
-        <v>-36060.75</v>
+        <v>-28973.95</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>-36060.75</v>
+        <v>-28973.95</v>
       </c>
     </row>
     <row r="3">
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="B3" s="5" t="n">
-        <v>82544.28999999999</v>
+        <v>97647.47</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>82544.28999999999</v>
+        <v>97647.47</v>
       </c>
     </row>
     <row r="4">
@@ -1405,10 +1405,10 @@
         </is>
       </c>
       <c r="B4" s="5" t="n">
-        <v>-41921.42</v>
+        <v>-34430.07</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-41921.42</v>
+        <v>-34430.07</v>
       </c>
     </row>
     <row r="5">
@@ -1418,10 +1418,10 @@
         </is>
       </c>
       <c r="B5" s="5" t="n">
-        <v>402524.61</v>
+        <v>439761.29</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>402524.61</v>
+        <v>439761.29</v>
       </c>
     </row>
     <row r="6">
@@ -1431,10 +1431,10 @@
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>-18507.8</v>
+        <v>-18061.25</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-18507.8</v>
+        <v>-18061.25</v>
       </c>
     </row>
     <row r="7">
@@ -1444,10 +1444,10 @@
         </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>-36155.44</v>
+        <v>-39080.4</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>-36155.44</v>
+        <v>-39080.4</v>
       </c>
     </row>
     <row r="8">
@@ -1457,10 +1457,10 @@
         </is>
       </c>
       <c r="B8" s="5" t="n">
-        <v>-9956.629999999999</v>
+        <v>-13311.51</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-9956.629999999999</v>
+        <v>-13311.51</v>
       </c>
     </row>
     <row r="9">
@@ -1470,10 +1470,10 @@
         </is>
       </c>
       <c r="B9" s="5" t="n">
-        <v>-50726.54</v>
+        <v>-49862.93</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-50726.54</v>
+        <v>-49862.93</v>
       </c>
     </row>
     <row r="10">
@@ -1483,10 +1483,10 @@
         </is>
       </c>
       <c r="B10" s="5" t="n">
-        <v>-34507.96</v>
+        <v>-24965.85</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-34507.96</v>
+        <v>-24965.85</v>
       </c>
     </row>
     <row r="11">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="B11" s="5" t="n">
-        <v>196653.19</v>
+        <v>189920.85</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>196653.19</v>
+        <v>189920.85</v>
       </c>
     </row>
     <row r="12">
@@ -1509,10 +1509,10 @@
         </is>
       </c>
       <c r="B12" s="5" t="n">
-        <v>-196653.19</v>
+        <v>-189920.85</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-196653.19</v>
+        <v>-189920.85</v>
       </c>
     </row>
     <row r="13">
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="B13" s="5" t="n">
-        <v>-11888.14</v>
+        <v>-12846.96</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>-11888.14</v>
+        <v>-12846.96</v>
       </c>
     </row>
     <row r="14">
@@ -1535,10 +1535,10 @@
         </is>
       </c>
       <c r="B14" s="5" t="n">
-        <v>81024.71000000001</v>
+        <v>110584.34</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>81024.71000000001</v>
+        <v>110584.34</v>
       </c>
     </row>
     <row r="15">
@@ -1548,10 +1548,10 @@
         </is>
       </c>
       <c r="B15" s="6" t="n">
-        <v>326368.93</v>
+        <v>426460.18</v>
       </c>
       <c r="C15" s="6" t="n">
-        <v>326368.93</v>
+        <v>426460.18</v>
       </c>
     </row>
   </sheetData>
